--- a/src/test/resources/testData/HerBalanceDataSheetVM.xlsx
+++ b/src/test/resources/testData/HerBalanceDataSheetVM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayau\OneDrive\Desktop\GIT-MATHU-VIJI-TRIAL\SELENIUM-BDD-CUCUMBER-FRAMEWORK\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA54A63-DC05-4A10-BFA2-A42F93883110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C130EAD-E199-4A90-BBEB-F74B8D18EF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15000" xr2:uid="{FB278731-2016-4648-9D59-7ACA56D0A234}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -177,10 +177,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9171CBBF-F56C-402F-9AE9-7AC247DB72C7}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,215 +516,151 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="2"/>
+      <c r="K24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/HerBalanceDataSheetVM.xlsx
+++ b/src/test/resources/testData/HerBalanceDataSheetVM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayau\OneDrive\Desktop\GIT-MATHU-VIJI-TRIAL\SELENIUM-BDD-CUCUMBER-FRAMEWORK\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C130EAD-E199-4A90-BBEB-F74B8D18EF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB51610E-13BC-4A1B-88AF-4D5AB866B770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15000" xr2:uid="{FB278731-2016-4648-9D59-7ACA56D0A234}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -70,12 +70,6 @@
   </si>
   <si>
     <t>herbal@123</t>
-  </si>
-  <si>
-    <t>" "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">" " </t>
   </si>
   <si>
     <t>scenario</t>
@@ -494,7 +488,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +500,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -548,9 +542,7 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
@@ -562,20 +554,14 @@
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
